--- a/testData/client_test_data.xlsx
+++ b/testData/client_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_client" sheetId="2" r:id="rId1"/>
@@ -17,15 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
-  <si>
-    <t>测试点说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,18 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户端名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动作流为空的校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,19 +95,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>父级类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MYSQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改的客户端名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,6 +153,26 @@
   </si>
   <si>
     <t xml:space="preserve"> test_F06_S13_mod_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改的客户端名称4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端名称5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作流6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,22 +203,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -299,16 +271,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,15 +292,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -345,16 +307,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -654,244 +615,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="42.25" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -902,17 +836,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="63" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
@@ -922,70 +856,70 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -997,16 +931,6 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1019,113 +943,117 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.25" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9"/>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
+      <c r="A5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="12"/>
+      <c r="B19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1138,52 +1066,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="5" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
